--- a/new_backend/media/output/REPORT.xlsx
+++ b/new_backend/media/output/REPORT.xlsx
@@ -456,7 +456,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>T52anKQ</t>
+          <t>o0TNfM3</t>
         </is>
       </c>
     </row>
@@ -471,7 +471,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>EJCCjJN</t>
+          <t>fVyBjXo</t>
         </is>
       </c>
     </row>
@@ -486,7 +486,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>vfjoCMH</t>
+          <t>RcUBDTm</t>
         </is>
       </c>
     </row>
